--- a/academias/Laboratorio Clínico - Estadisticos 20242.xlsx
+++ b/academias/Laboratorio Clínico - Estadisticos 20242.xlsx
@@ -937,7 +937,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="2">
-        <v>9.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -1556,25 +1556,25 @@
         <v>39</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="F2">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="G2" s="1">
-        <v>0</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="H2" s="1">
-        <v>100</v>
+        <v>2.6</v>
       </c>
       <c r="I2" s="2">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="J2">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1591,25 +1591,25 @@
         <v>39</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="F3">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="G3" s="1">
-        <v>0</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="H3" s="1">
-        <v>100</v>
+        <v>2.6</v>
       </c>
       <c r="I3" s="2">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="J3">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1626,25 +1626,25 @@
         <v>38</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="F4">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="G4" s="1">
-        <v>0</v>
+        <v>86.8</v>
       </c>
       <c r="H4" s="1">
-        <v>100</v>
+        <v>13.2</v>
       </c>
       <c r="I4" s="2">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="J4">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1658,25 +1658,25 @@
         <v>116</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="F5">
-        <v>116</v>
+        <v>7</v>
       </c>
       <c r="G5" s="1">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="H5" s="1">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="I5" s="2">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J5">
-        <v>116</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1693,25 +1693,25 @@
         <v>28</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="F6">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="G6" s="1">
-        <v>0</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="H6" s="1">
-        <v>100</v>
+        <v>7.1</v>
       </c>
       <c r="I6" s="2">
-        <v>0</v>
+        <v>7.9</v>
       </c>
       <c r="J6">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1728,25 +1728,25 @@
         <v>28</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="F7">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="G7" s="1">
-        <v>0</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="H7" s="1">
-        <v>100</v>
+        <v>7.1</v>
       </c>
       <c r="I7" s="2">
-        <v>0</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="J7">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1760,25 +1760,25 @@
         <v>56</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="F8">
-        <v>56</v>
+        <v>4</v>
       </c>
       <c r="G8" s="1">
-        <v>0</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="H8" s="1">
-        <v>100</v>
+        <v>7.1</v>
       </c>
       <c r="I8" s="2">
-        <v>0</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="J8">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1795,25 +1795,25 @@
         <v>38</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="F9">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="G9" s="1">
-        <v>0</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="H9" s="1">
-        <v>100</v>
+        <v>18.4</v>
       </c>
       <c r="I9" s="2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J9">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1830,25 +1830,25 @@
         <v>34</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="F10">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="G10" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H10" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I10" s="2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J10">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1865,25 +1865,25 @@
         <v>34</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="F11">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="G11" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H11" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I11" s="2">
-        <v>0</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="J11">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1900,25 +1900,25 @@
         <v>38</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="F12">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="G12" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H12" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I12" s="2">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J12">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1935,25 +1935,25 @@
         <v>38</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="F13">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="G13" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H13" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I13" s="2">
-        <v>0</v>
+        <v>8.9</v>
       </c>
       <c r="J13">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1970,25 +1970,25 @@
         <v>38</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="F14">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="G14" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H14" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I14" s="2">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J14">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -2002,25 +2002,25 @@
         <v>220</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>213</v>
       </c>
       <c r="F15">
-        <v>220</v>
+        <v>7</v>
       </c>
       <c r="G15" s="1">
-        <v>0</v>
+        <v>96.8</v>
       </c>
       <c r="H15" s="1">
-        <v>100</v>
+        <v>3.2</v>
       </c>
       <c r="I15" s="2">
-        <v>0</v>
+        <v>8.9</v>
       </c>
       <c r="J15">
-        <v>220</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -2037,25 +2037,25 @@
         <v>28</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="F16">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="G16" s="1">
-        <v>0</v>
+        <v>85.7</v>
       </c>
       <c r="H16" s="1">
-        <v>100</v>
+        <v>14.3</v>
       </c>
       <c r="I16" s="2">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="J16">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -2072,25 +2072,25 @@
         <v>25</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F17">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="G17" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H17" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I17" s="2">
-        <v>0</v>
+        <v>7.7</v>
       </c>
       <c r="J17">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -2104,25 +2104,25 @@
         <v>53</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="F18">
-        <v>53</v>
+        <v>4</v>
       </c>
       <c r="G18" s="1">
-        <v>0</v>
+        <v>92.5</v>
       </c>
       <c r="H18" s="1">
-        <v>100</v>
+        <v>7.5</v>
       </c>
       <c r="I18" s="2">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="J18">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -2139,25 +2139,25 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F19">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="G19" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H19" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I19" s="2">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="J19">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -2174,25 +2174,25 @@
         <v>25</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F20">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="G20" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H20" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I20" s="2">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="J20">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -2209,25 +2209,25 @@
         <v>28</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="F21">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="G21" s="1">
-        <v>0</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="H21" s="1">
-        <v>100</v>
+        <v>3.6</v>
       </c>
       <c r="I21" s="2">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J21">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -2241,25 +2241,25 @@
         <v>78</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="F22">
-        <v>78</v>
+        <v>1</v>
       </c>
       <c r="G22" s="1">
-        <v>0</v>
+        <v>98.7</v>
       </c>
       <c r="H22" s="1">
-        <v>100</v>
+        <v>1.3</v>
       </c>
       <c r="I22" s="2">
-        <v>0</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="J22">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -2276,25 +2276,25 @@
         <v>34</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="F23">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="G23" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H23" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I23" s="2">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="J23">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -2311,25 +2311,25 @@
         <v>41</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F24">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="G24" s="1">
-        <v>0</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="H24" s="1">
-        <v>100</v>
+        <v>2.4</v>
       </c>
       <c r="I24" s="2">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J24">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -2346,25 +2346,25 @@
         <v>41</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F25">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="G25" s="1">
-        <v>0</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="H25" s="1">
-        <v>100</v>
+        <v>2.4</v>
       </c>
       <c r="I25" s="2">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J25">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -2381,25 +2381,25 @@
         <v>36</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="F26">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="G26" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H26" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I26" s="2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J26">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -2416,25 +2416,25 @@
         <v>36</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="F27">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="G27" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H27" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I27" s="2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J27">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="K27" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -2448,25 +2448,25 @@
         <v>188</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="F28">
-        <v>188</v>
+        <v>2</v>
       </c>
       <c r="G28" s="1">
-        <v>0</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="H28" s="1">
-        <v>100</v>
+        <v>1.1</v>
       </c>
       <c r="I28" s="2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J28">
-        <v>188</v>
+        <v>0</v>
       </c>
       <c r="K28" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -2477,25 +2477,25 @@
         <v>711</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>686</v>
       </c>
       <c r="F29">
-        <v>711</v>
+        <v>25</v>
       </c>
       <c r="G29" s="1">
-        <v>0</v>
+        <v>96.5</v>
       </c>
       <c r="H29" s="1">
-        <v>100</v>
+        <v>3.5</v>
       </c>
       <c r="I29" s="2">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="J29">
-        <v>711</v>
+        <v>0</v>
       </c>
       <c r="K29" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2566,19 +2566,19 @@
         <v>39</v>
       </c>
       <c r="E2">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G2" s="1">
-        <v>89.7</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="H2" s="1">
-        <v>10.3</v>
+        <v>2.6</v>
       </c>
       <c r="I2" s="2">
-        <v>7.3</v>
+        <v>8.1</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -2613,7 +2613,7 @@
         <v>2.6</v>
       </c>
       <c r="I3" s="2">
-        <v>8.699999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -2636,19 +2636,19 @@
         <v>38</v>
       </c>
       <c r="E4">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G4" s="1">
-        <v>89.5</v>
+        <v>86.8</v>
       </c>
       <c r="H4" s="1">
-        <v>10.5</v>
+        <v>13.2</v>
       </c>
       <c r="I4" s="2">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -2668,19 +2668,19 @@
         <v>116</v>
       </c>
       <c r="E5">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F5">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G5" s="1">
-        <v>92.2</v>
+        <v>94</v>
       </c>
       <c r="H5" s="1">
-        <v>7.8</v>
+        <v>6</v>
       </c>
       <c r="I5" s="2">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -2703,19 +2703,19 @@
         <v>28</v>
       </c>
       <c r="E6">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G6" s="1">
-        <v>85.7</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="H6" s="1">
-        <v>14.3</v>
+        <v>7.1</v>
       </c>
       <c r="I6" s="2">
-        <v>6.9</v>
+        <v>7.6</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -2738,19 +2738,19 @@
         <v>28</v>
       </c>
       <c r="E7">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G7" s="1">
-        <v>85.7</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="H7" s="1">
-        <v>14.3</v>
+        <v>7.1</v>
       </c>
       <c r="I7" s="2">
-        <v>8.5</v>
+        <v>8.6</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -2770,19 +2770,19 @@
         <v>56</v>
       </c>
       <c r="E8">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F8">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G8" s="1">
-        <v>85.7</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="H8" s="1">
-        <v>14.3</v>
+        <v>7.1</v>
       </c>
       <c r="I8" s="2">
-        <v>7.7</v>
+        <v>8.1</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -2805,19 +2805,19 @@
         <v>38</v>
       </c>
       <c r="E9">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G9" s="1">
-        <v>100</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="H9" s="1">
-        <v>0</v>
+        <v>18.4</v>
       </c>
       <c r="I9" s="2">
-        <v>7.6</v>
+        <v>7.9</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -2852,7 +2852,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="2">
-        <v>8.300000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -2887,7 +2887,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="2">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -2922,7 +2922,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="2">
-        <v>8.9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -2957,7 +2957,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="2">
-        <v>9.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -2992,7 +2992,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="2">
-        <v>9.300000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -3012,19 +3012,19 @@
         <v>220</v>
       </c>
       <c r="E15">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G15" s="1">
-        <v>100</v>
+        <v>96.8</v>
       </c>
       <c r="H15" s="1">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="I15" s="2">
-        <v>8.699999999999999</v>
+        <v>9</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -3059,7 +3059,7 @@
         <v>14.3</v>
       </c>
       <c r="I16" s="2">
-        <v>6.8</v>
+        <v>7.3</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -3094,7 +3094,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="2">
-        <v>7.3</v>
+        <v>7.8</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -3126,7 +3126,7 @@
         <v>7.5</v>
       </c>
       <c r="I18" s="2">
-        <v>7</v>
+        <v>7.6</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -3149,19 +3149,19 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F19">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G19" s="1">
-        <v>68</v>
+        <v>100</v>
       </c>
       <c r="H19" s="1">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="I19" s="2">
-        <v>6.1</v>
+        <v>7.4</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -3184,19 +3184,19 @@
         <v>25</v>
       </c>
       <c r="E20">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F20">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G20" s="1">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="H20" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I20" s="2">
-        <v>7.4</v>
+        <v>8.1</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -3219,19 +3219,19 @@
         <v>28</v>
       </c>
       <c r="E21">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F21">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G21" s="1">
-        <v>78.59999999999999</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="H21" s="1">
-        <v>21.4</v>
+        <v>3.6</v>
       </c>
       <c r="I21" s="2">
-        <v>8.300000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -3251,19 +3251,19 @@
         <v>78</v>
       </c>
       <c r="E22">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="F22">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="G22" s="1">
-        <v>78.2</v>
+        <v>98.7</v>
       </c>
       <c r="H22" s="1">
-        <v>21.8</v>
+        <v>1.3</v>
       </c>
       <c r="I22" s="2">
-        <v>7.3</v>
+        <v>8</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -3298,7 +3298,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="2">
-        <v>8.300000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -3333,7 +3333,7 @@
         <v>2.4</v>
       </c>
       <c r="I24" s="2">
-        <v>8.699999999999999</v>
+        <v>9</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -3368,7 +3368,7 @@
         <v>2.4</v>
       </c>
       <c r="I25" s="2">
-        <v>8.699999999999999</v>
+        <v>9</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -3403,7 +3403,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="2">
-        <v>9</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="I27" s="2">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -3470,7 +3470,7 @@
         <v>1.1</v>
       </c>
       <c r="I28" s="2">
-        <v>8.699999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -3487,19 +3487,19 @@
         <v>711</v>
       </c>
       <c r="E29">
-        <v>671</v>
+        <v>686</v>
       </c>
       <c r="F29">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="G29" s="1">
-        <v>94.40000000000001</v>
+        <v>96.5</v>
       </c>
       <c r="H29" s="1">
-        <v>5.6</v>
+        <v>3.5</v>
       </c>
       <c r="I29" s="2">
-        <v>8.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="J29">
         <v>0</v>
